--- a/biology/Zoologie/Chacal/Chacal.xlsx
+++ b/biology/Zoologie/Chacal/Chacal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chacal est le nom vernaculaire désignant en français plusieurs espèces de petite ou moyenne taille de la famille des Canidés. On les trouve en Afrique, en Asie mais, également en Europe méditerranéenne et plus particulièrement dans les Balkans. C'est un mammifère adaptable et opportuniste. Ainsi, le chacal doré, déjà en forte expansion depuis le début des années 2000, connait un accroissement encore accéléré de son aire de répartition vers le nord et l'ouest de l'Europe depuis les années 2010 à la faveur du réchauffement climatique[1].
-Les chacals occupent une niche écologique semblable à celle du coyote en Amérique du Nord. Comme le loup en liberté[2], les chacals vivent en famille comprenant un couple socialement monogame et leur petits. Chaque famille contrôle, marque et surveille un territoire. De nature opportuniste, ils se nourrissent principalement de charognes et de fruits et chassent de petites proies : petits mammifères, insectes, grenouilles, lézards et oiseaux. Également, comme les loups, les chacals chassent soit seuls (le mâle surtout lorsque la mère allaite), soit en couple, parfois avec de jeunes adultes lorsque le territoire est suffisant pour qu'ils restent plus longtemps.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chacal est le nom vernaculaire désignant en français plusieurs espèces de petite ou moyenne taille de la famille des Canidés. On les trouve en Afrique, en Asie mais, également en Europe méditerranéenne et plus particulièrement dans les Balkans. C'est un mammifère adaptable et opportuniste. Ainsi, le chacal doré, déjà en forte expansion depuis le début des années 2000, connait un accroissement encore accéléré de son aire de répartition vers le nord et l'ouest de l'Europe depuis les années 2010 à la faveur du réchauffement climatique.
+Les chacals occupent une niche écologique semblable à celle du coyote en Amérique du Nord. Comme le loup en liberté, les chacals vivent en famille comprenant un couple socialement monogame et leur petits. Chaque famille contrôle, marque et surveille un territoire. De nature opportuniste, ils se nourrissent principalement de charognes et de fruits et chassent de petites proies : petits mammifères, insectes, grenouilles, lézards et oiseaux. Également, comme les loups, les chacals chassent soit seuls (le mâle surtout lorsque la mère allaite), soit en couple, parfois avec de jeunes adultes lorsque le territoire est suffisant pour qu'ils restent plus longtemps.
 Anubis, le dieu égyptien de l'au-delà, a une tête de chacal. Comme le coyote ou le renard, le chacal symbolise l'astuce ou l'intelligence dans les cultures populaires, notamment celles des sorciers, voire le mythe interculturel du fripon.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme chacal dériverait du sanskrit शृगाल (sṛgālá) qui signifie « le hurleur » via le persan شغال (šaḡāl) et le turc çakal. Toutes les langues européennes ont leur nom vernaculaire formé à partir de cette même racine, même si le terme latin est thos, terme qui est lui, probablement originaire du carthaginois[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme chacal dériverait du sanskrit शृगाल (sṛgālá) qui signifie « le hurleur » via le persan شغال (šaḡāl) et le turc çakal. Toutes les langues européennes ont leur nom vernaculaire formé à partir de cette même racine, même si le terme latin est thos, terme qui est lui, probablement originaire du carthaginois.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Biologie, comportement et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caractéristiques générales des chacals sont celles des Canidés et du genre Canis, avec des différences pour chaque espèce : voir les articles détaillés pour plus d'informations, notamment sur leur constitution physique ou leur mode de vie respectif.
 Ils partagent toutefois plusieurs caractéristiques communes à la majorité des espèces, comme la communication orale, qui est très importante chez tous les chacals.
@@ -580,7 +596,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chacal commun ou chacal doré ou dihb (Canis aureus)
 Chacal à flancs rayés (Lupulella adustus)
@@ -616,7 +634,9 @@
           <t>Mythologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dieu de la mort et de l'embaumement de la mythologie égyptienne, Anubis, était représenté sous les traits d'un homme à tête de chacal. Il en va de même pour d'autres dieux égyptiens, comme Oupouaout, Sed, Khentamentiou, Oupiou, Anupet...  
 Le chacal est aussi le véhicule de la déesse hindoue Kâlî, déesse du Temps et de la Mort.
